--- a/mesh/files/reference_xls/Mesh Area Table.xlsx
+++ b/mesh/files/reference_xls/Mesh Area Table.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10222"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snigdhagoel/Documents/Vibrant Technik/vibrant-technik/offer-generator-test/mesh/files/reference_xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738D16FB-A495-3D4A-AD67-1B1D5E99E29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C32DBB4-E4FD-794D-B740-915EDAF89E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" xr2:uid="{3E4499C3-8B36-D54C-997B-6ACA95CCAFC7}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="17660" xr2:uid="{3E4499C3-8B36-D54C-997B-6ACA95CCAFC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -62,6 +63,15 @@
     <t>Project Name</t>
   </si>
   <si>
+    <t>SS 304 MESH</t>
+  </si>
+  <si>
+    <t>MW160</t>
+  </si>
+  <si>
+    <t>Ø2.0</t>
+  </si>
+  <si>
     <r>
       <t>Area (ft</t>
     </r>
@@ -69,39 +79,28 @@
       <rPr>
         <b/>
         <vertAlign val="superscript"/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
+        <rFont val="Montserrat"/>
       </rPr>
       <t>2</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
+        <rFont val="Montserrat"/>
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <t>SS 304 MESH</t>
-  </si>
-  <si>
-    <t>MW160</t>
-  </si>
-  <si>
-    <t>Ø2.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -111,24 +110,21 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
+      <name val="Montserrat"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Montserrat"/>
     </font>
     <font>
       <b/>
       <vertAlign val="superscript"/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
+      <name val="Montserrat"/>
     </font>
   </fonts>
   <fills count="2">
@@ -139,7 +135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -148,30 +144,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FFFD5300"/>
       </bottom>
       <diagonal/>
     </border>
@@ -179,126 +156,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FFFD5300"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FFFD5300"/>
       </bottom>
       <diagonal/>
     </border>
@@ -306,46 +167,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -353,6 +194,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFD5300"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -684,89 +530,93 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="240" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.33203125" customWidth="1"/>
-    <col min="6" max="6" width="6.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="16.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="2"/>
+    <col min="6" max="6" width="9.6640625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" ht="30" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="30" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="8" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="4" spans="1:6" ht="30" customHeight="1">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="6">
+        <v>760000</v>
+      </c>
+      <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D4" s="2">
-        <v>760000</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="F4" s="7">
         <f>+(C4*D4/304.8/304.8)*E4</f>
         <v>8180.5719166993877</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:6" ht="30" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="4">
         <f>SUM(F4:F4)</f>
         <v>8180.5719166993877</v>
